--- a/Assets/StreamingAssets/Boss1-1.xlsx
+++ b/Assets/StreamingAssets/Boss1-1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Project-X\Assets\StreamingAssets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296728B5-B50E-4C0E-82E9-354372D25E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,25 +92,33 @@
   </si>
   <si>
     <t>text4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -147,7 +155,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,26 +459,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -486,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -494,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -502,7 +510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -510,39 +518,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -550,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -558,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
